--- a/xlsx/孙子兵法_intext.xlsx
+++ b/xlsx/孙子兵法_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
   <si>
     <t>孙子兵法</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E6%AD%A6</t>
   </si>
   <si>
-    <t>孫武</t>
+    <t>孙武</t>
   </si>
   <si>
     <t>政策_政策_管理_孙子兵法</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>春秋時期</t>
+    <t>春秋时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%BB%8F%E4%B8%83%E4%B9%A6</t>
@@ -71,43 +71,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>河濱加利福尼亞大學</t>
+    <t>河滨加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E5%9C%8B</t>
   </si>
   <si>
-    <t>齊國</t>
+    <t>齐国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E8%AB%B8</t>
   </si>
   <si>
-    <t>專諸</t>
+    <t>专诸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E7%8E%8B%E5%83%9A</t>
   </si>
   <si>
-    <t>吳王僚</t>
+    <t>吴王僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%94%E9%96%AD</t>
   </si>
   <si>
-    <t>闔閭</t>
+    <t>阖闾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%A6%AC%E9%81%B7</t>
   </si>
   <si>
-    <t>司馬遷</t>
+    <t>司马迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A8%98</t>
   </si>
   <si>
-    <t>史記</t>
+    <t>史记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B9%E6%93%8D</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%87%89%E9%BA%9F</t>
   </si>
   <si>
-    <t>胡應麟</t>
+    <t>胡应麟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E6%98%80</t>
   </si>
   <si>
-    <t>紀昀</t>
+    <t>纪昀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E6%98%9F%E8%A1%8D</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E8%87%8F</t>
   </si>
   <si>
-    <t>孫臏</t>
+    <t>孙膑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E7%A9%86</t>
   </si>
   <si>
-    <t>錢穆</t>
+    <t>钱穆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AE%B6%E7%A5%A5</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E9%A0%A1%E5%89%9B</t>
   </si>
   <si>
-    <t>顧頡剛</t>
+    <t>顾颉刚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E5%AF%AC</t>
   </si>
   <si>
-    <t>楊寬</t>
+    <t>杨宽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%9C%E7%9C%81</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E9%9B%80%E5%B1%B1</t>
   </si>
   <si>
-    <t>銀雀山</t>
+    <t>银雀山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E9%9B%80%E5%B1%B1%E6%B1%89%E7%AE%80</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E8%87%8F%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫臏兵法</t>
+    <t>孙膑兵法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%9B%B6</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事學</t>
+    <t>军事学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>間諜</t>
+    <t>间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%AC%E5%96%BB</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%9E%97%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>風林火山</t>
+    <t>风林火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%A4%AA%E5%AE%97%E6%9D%8E%E5%8D%AB%E5%85%AC%E9%97%AE%E5%AF%B9</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%87%E9%A0%98</t>
   </si>
   <si>
-    <t>將領</t>
+    <t>将领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
@@ -335,43 +335,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%87%E9%A1%9E</t>
   </si>
   <si>
-    <t>蛇類</t>
+    <t>蛇类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2</t>
   </si>
   <si>
-    <t>漢</t>
+    <t>汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E4%BF%A1</t>
   </si>
   <si>
-    <t>韓信</t>
+    <t>韩信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%95%E9%99%98%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>井陘之戰</t>
+    <t>井陉之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%9C%8B</t>
   </si>
   <si>
-    <t>趙國</t>
+    <t>赵国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%A4%98</t>
   </si>
   <si>
-    <t>陳餘</t>
+    <t>陈馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%9C%8B</t>
   </si>
   <si>
-    <t>吳國</t>
+    <t>吴国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E7%8E%8B%E9%98%96%E9%97%BE</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%93%A1</t>
   </si>
   <si>
-    <t>伍員</t>
+    <t>伍员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E5%9C%8B</t>
   </si>
   <si>
-    <t>楚國</t>
+    <t>楚国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%BD%E4%BF%AE</t>
   </si>
   <si>
-    <t>歐陽修</t>
+    <t>欧阳修</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E7%89%A7</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%A0%AF%E8%87%A3</t>
   </si>
   <si>
-    <t>梅堯臣</t>
+    <t>梅尧臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E9%A2%84</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E7%99%BE%E9%87%8C</t>
   </si>
   <si>
-    <t>蔣百里</t>
+    <t>蒋百里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E4%BC%AF%E6%89%BF</t>
   </si>
   <si>
-    <t>劉伯承</t>
+    <t>刘伯承</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E6%B1%89%E7%AB%A0</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%95%E5%85%88%E9%8D%BE</t>
   </si>
   <si>
-    <t>鈕先鍾</t>
+    <t>钮先锺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E9%83%A8%E5%8D%83%E6%98%A5</t>
@@ -479,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E4%BC%9A%E5%A3%AB</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E5%BE%B7%E6%98%8E</t>
   </si>
   <si>
-    <t>錢德明</t>
+    <t>钱德明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -521,19 +521,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Samuel_B._Griffith</t>
@@ -563,25 +563,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E9%9D%9E%E5%AD%90</t>
   </si>
   <si>
-    <t>韓非子</t>
+    <t>韩非子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E9%9D%9E</t>
   </si>
   <si>
-    <t>韓非</t>
+    <t>韩非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3</t>
   </si>
   <si>
-    <t>吳</t>
+    <t>吴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AC%E9%A6%96</t>
   </si>
   <si>
-    <t>斬首</t>
+    <t>斩首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
@@ -593,19 +593,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E4%BC%AF%E6%BA%AB</t>
   </si>
   <si>
-    <t>劉伯溫</t>
+    <t>刘伯温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%88%B0%E5%A5%87%E7%95%A5</t>
   </si>
   <si>
-    <t>百戰奇略</t>
+    <t>百战奇略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%9A%87%E5%B8%9D</t>
@@ -629,37 +629,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E5%AE%98%E8%80%83%E8%A9%A6</t>
   </si>
   <si>
-    <t>預官考試</t>
+    <t>预官考试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%96%87</t>
   </si>
   <si>
-    <t>國文</t>
+    <t>国文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
+    <t>博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%8B%E8%97%9D</t>
   </si>
   <si>
-    <t>棋藝</t>
+    <t>棋艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E7%AB%B6%E6%8A%80</t>
   </si>
   <si>
-    <t>運動競技</t>
+    <t>运动竞技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E7%B6%93</t>
   </si>
   <si>
-    <t>易經</t>
+    <t>易经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E7%82%B3%E6%A3%A3</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BC%A2</t>
   </si>
   <si>
-    <t>東漢</t>
+    <t>东汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%95</t>
@@ -737,25 +737,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%85%83%E5%84%80</t>
   </si>
   <si>
-    <t>茅元儀</t>
+    <t>茅元仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%A9%9F%E5%88%B6%E6%95%B5%E5%A4%AA%E7%99%BD%E9%99%B0%E7%B6%93</t>
   </si>
   <si>
-    <t>神機制敵太白陰經</t>
+    <t>神机制敌太白阴经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%88%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>軍事戰略</t>
+    <t>军事战略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%BC%AA%E6%9B%B8</t>
   </si>
   <si>
-    <t>五輪書</t>
+    <t>五轮书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E8%AE%BA</t>
@@ -785,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E4%B8%AD%E5%B8%82%E7%A7%81%E7%AB%8B%E6%9B%89%E6%98%8E%E5%A5%B3%E5%AD%90%E9%AB%98%E7%B4%9A%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺中市私立曉明女子高級中學</t>
+    <t>台中市私立晓明女子高级中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%B6%8A%E6%98%A5%E7%A7%8B</t>
   </si>
   <si>
-    <t>吳越春秋</t>
+    <t>吴越春秋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E5%AE%88%E8%8A%82</t>
@@ -803,43 +803,40 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%93%B2%E5%AD%B8%E6%9B%B8%E9%9B%BB%E5%AD%90%E5%8C%96%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>中國哲學書電子化計劃</t>
+    <t>中国哲学书电子化计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%AD%90%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫子兵法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%AD%90</t>
   </si>
   <si>
-    <t>吳子</t>
+    <t>吴子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>司馬法</t>
+    <t>司马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%9F%9C</t>
   </si>
   <si>
-    <t>六韜</t>
+    <t>六韬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%89%E7%B9%9A%E5%AD%90</t>
   </si>
   <si>
-    <t>尉繚子</t>
+    <t>尉缭子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%95%A5</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%B9%E8%B2%A2</t>
   </si>
   <si>
-    <t>禹貢</t>
+    <t>禹贡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%90%E5%A4%A7%E5%85%B8</t>
@@ -971,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B6%E8%BB%92%E4%BD%BF%E8%80%85%E7%B5%95%E4%BB%A3%E8%AA%9E%E9%87%8B%E5%88%A5%E5%9C%8B%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>輶軒使者絕代語釋別國方言</t>
+    <t>輶轩使者绝代语释别国方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%81%B8</t>
   </si>
   <si>
-    <t>文選</t>
+    <t>文选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%80%9A</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%BB%A3%E8%A8%98</t>
   </si>
   <si>
-    <t>太平廣記</t>
+    <t>太平广记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%AF%B4%E6%96%B0%E8%AF%AD</t>
@@ -1007,15 +1004,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E_(%E6%9B%B8)</t>
   </si>
   <si>
-    <t>國語 (書)</t>
+    <t>国语 (书)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%AE%B0</t>
   </si>
   <si>
-    <t>史记</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%B2%BB%E9%80%9A%E9%89%B4</t>
   </si>
   <si>
@@ -1127,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%A0%B4%E7%8F%BE%E5%BD%A2%E8%A8%98</t>
   </si>
   <si>
-    <t>官場現形記</t>
+    <t>官场现形记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BFQ%E6%AD%A3%E4%BC%A0</t>
@@ -1163,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E9%9B%80%E6%9D%B1%E5%8D%97%E9%A3%9B</t>
   </si>
   <si>
-    <t>孔雀東南飛</t>
+    <t>孔雀东南飞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%82%E4%BA%BA%E6%97%A5%E8%AE%B0</t>
@@ -1193,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E5%86%A4%E9%9B%86%E9%8C%84</t>
   </si>
   <si>
-    <t>洗冤集錄</t>
+    <t>洗冤集录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5463,7 +5457,7 @@
         <v>265</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>136</v>
@@ -5489,10 +5483,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5518,10 +5512,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5547,10 +5541,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5576,10 +5570,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5605,10 +5599,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5663,10 +5657,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5692,10 +5686,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5721,10 +5715,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5750,10 +5744,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5779,10 +5773,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5808,10 +5802,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5837,10 +5831,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5866,10 +5860,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5895,10 +5889,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5924,10 +5918,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5953,10 +5947,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5982,10 +5976,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6011,10 +6005,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6040,10 +6034,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6069,10 +6063,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6098,10 +6092,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6127,10 +6121,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6156,10 +6150,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6185,10 +6179,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6214,10 +6208,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6243,10 +6237,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6272,10 +6266,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6301,10 +6295,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6330,10 +6324,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6359,10 +6353,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6388,10 +6382,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6417,10 +6411,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6446,10 +6440,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6475,10 +6469,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6504,10 +6498,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6533,10 +6527,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6562,10 +6556,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6591,10 +6585,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6620,10 +6614,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6649,10 +6643,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6678,10 +6672,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6707,10 +6701,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6736,10 +6730,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6765,10 +6759,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6794,10 +6788,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6823,10 +6817,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6852,10 +6846,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6881,10 +6875,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6910,10 +6904,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6939,10 +6933,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6968,10 +6962,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6997,10 +6991,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7026,10 +7020,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7055,10 +7049,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7084,10 +7078,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7113,10 +7107,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7142,10 +7136,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7171,10 +7165,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7200,10 +7194,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7229,10 +7223,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7258,10 +7252,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7287,10 +7281,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7316,10 +7310,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7345,10 +7339,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -7374,10 +7368,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7403,10 +7397,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7432,10 +7426,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7461,10 +7455,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7490,10 +7484,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7519,10 +7513,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
